--- a/biology/Botanique/Thomas_Jefferson_Howell/Thomas_Jefferson_Howell.xlsx
+++ b/biology/Botanique/Thomas_Jefferson_Howell/Thomas_Jefferson_Howell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Jefferson Howell est un botaniste américain, né le 8 octobre 1842 dans le Missouri et mort le 3 décembre 1912.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le plus jeune des cinq enfants de Benjamin et Elizabeth Howell. Son père, malgré sa formation de médecin, néglige l’éducation de ses enfants qu’il fait travailler dans la ferme familiale près de Portland. Le jeune Thomas, comme ses frères, ne fréquente l’école que quelques mois et doit apprendre par lui-même. Il se passionne très tôt pour les fleurs et commence à les décrire et les collectionner.
 Thomas Howell préfère, au travail de fermier, voyager dans le nord-ouest du pays où il récolte des plantes, les fait sécher et les vend. Comme il est incapable de donner un nom aux espèces qu’il récolte, il les fait déterminer par des botanistes comme Asa Gray, George S. Vasey, Liberty Hyde Bailey ou Sereno Watson. Il fait paraître, en 1877, un Catalogue of the Flora of Oregon, Washington and Idaho, de 22 pages.
@@ -545,7 +559,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Asa Gray lui a dédié un genre de Campanulacée, Howellia, à partir d’un spécimen récolté par Howell à Sauvie Island.
 </t>
